--- a/data/quotes/usd_blue.xlsx
+++ b/data/quotes/usd_blue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3559"/>
+  <dimension ref="A1:C3567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41183,11 +41183,11 @@
       </c>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>142,00</t>
+          <t>141,00</t>
         </is>
       </c>
       <c r="C2717" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2718">
@@ -41198,11 +41198,11 @@
       </c>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>141,00</t>
+          <t>142,00</t>
         </is>
       </c>
       <c r="C2718" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2719">
@@ -41423,11 +41423,11 @@
       </c>
       <c r="B2733" t="inlineStr">
         <is>
-          <t>138,00</t>
+          <t>139,00</t>
         </is>
       </c>
       <c r="C2733" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2734">
@@ -41438,11 +41438,11 @@
       </c>
       <c r="B2734" t="inlineStr">
         <is>
-          <t>139,00</t>
+          <t>138,00</t>
         </is>
       </c>
       <c r="C2734" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2735">
@@ -42683,11 +42683,11 @@
       </c>
       <c r="B2817" t="inlineStr">
         <is>
-          <t>180,00</t>
+          <t>179,50</t>
         </is>
       </c>
       <c r="C2817" t="n">
-        <v>185</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="2818">
@@ -42698,11 +42698,11 @@
       </c>
       <c r="B2818" t="inlineStr">
         <is>
-          <t>179,50</t>
+          <t>180,00</t>
         </is>
       </c>
       <c r="C2818" t="n">
-        <v>184.5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2819">
@@ -42848,11 +42848,11 @@
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>174,50</t>
+          <t>175,50</t>
         </is>
       </c>
       <c r="C2828" t="n">
-        <v>179.5</v>
+        <v>180.5</v>
       </c>
     </row>
     <row r="2829">
@@ -42863,11 +42863,11 @@
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>175,50</t>
+          <t>174,50</t>
         </is>
       </c>
       <c r="C2829" t="n">
-        <v>180.5</v>
+        <v>179.5</v>
       </c>
     </row>
     <row r="2830">
@@ -49613,11 +49613,11 @@
       </c>
       <c r="B3279" t="inlineStr">
         <is>
-          <t>485,00</t>
+          <t>481,00</t>
         </is>
       </c>
       <c r="C3279" t="n">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3280">
@@ -49628,11 +49628,11 @@
       </c>
       <c r="B3280" t="inlineStr">
         <is>
-          <t>481,00</t>
+          <t>485,00</t>
         </is>
       </c>
       <c r="C3280" t="n">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3281">
@@ -49883,11 +49883,11 @@
       </c>
       <c r="B3297" t="inlineStr">
         <is>
-          <t>488,00</t>
+          <t>489,00</t>
         </is>
       </c>
       <c r="C3297" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3298">
@@ -49898,11 +49898,11 @@
       </c>
       <c r="B3298" t="inlineStr">
         <is>
-          <t>489,00</t>
+          <t>488,00</t>
         </is>
       </c>
       <c r="C3298" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3299">
@@ -50558,11 +50558,11 @@
       </c>
       <c r="B3342" t="inlineStr">
         <is>
-          <t>720,00</t>
+          <t>715,00</t>
         </is>
       </c>
       <c r="C3342" t="n">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3343">
@@ -50573,11 +50573,11 @@
       </c>
       <c r="B3343" t="inlineStr">
         <is>
-          <t>715,00</t>
+          <t>720,00</t>
         </is>
       </c>
       <c r="C3343" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3344">
@@ -52553,11 +52553,11 @@
       </c>
       <c r="B3475" t="inlineStr">
         <is>
-          <t>1005,00</t>
+          <t>1010,00</t>
         </is>
       </c>
       <c r="C3475" t="n">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3476">
@@ -52568,11 +52568,11 @@
       </c>
       <c r="B3476" t="inlineStr">
         <is>
-          <t>1010,00</t>
+          <t>1005,00</t>
         </is>
       </c>
       <c r="C3476" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3477">
@@ -52988,11 +52988,11 @@
       </c>
       <c r="B3504" t="inlineStr">
         <is>
-          <t>1005,00</t>
+          <t>995,00</t>
         </is>
       </c>
       <c r="C3504" t="n">
-        <v>1035</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3505">
@@ -53003,11 +53003,11 @@
       </c>
       <c r="B3505" t="inlineStr">
         <is>
-          <t>995,00</t>
+          <t>1005,00</t>
         </is>
       </c>
       <c r="C3505" t="n">
-        <v>1025</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3506">
@@ -53123,11 +53123,11 @@
       </c>
       <c r="B3513" t="inlineStr">
         <is>
-          <t>1005,00</t>
+          <t>995,00</t>
         </is>
       </c>
       <c r="C3513" t="n">
-        <v>1035</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3514">
@@ -53153,11 +53153,11 @@
       </c>
       <c r="B3515" t="inlineStr">
         <is>
-          <t>995,00</t>
+          <t>1005,00</t>
         </is>
       </c>
       <c r="C3515" t="n">
-        <v>1025</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3516">
@@ -53168,11 +53168,11 @@
       </c>
       <c r="B3516" t="inlineStr">
         <is>
-          <t>1005,00</t>
+          <t>1000,00</t>
         </is>
       </c>
       <c r="C3516" t="n">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3517">
@@ -53183,11 +53183,11 @@
       </c>
       <c r="B3517" t="inlineStr">
         <is>
-          <t>1000,00</t>
+          <t>1005,00</t>
         </is>
       </c>
       <c r="C3517" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3518">
@@ -53228,7 +53228,7 @@
       </c>
       <c r="B3520" t="inlineStr">
         <is>
-          <t>990,00</t>
+          <t>1000,00</t>
         </is>
       </c>
       <c r="C3520" t="n">
@@ -53243,7 +53243,7 @@
       </c>
       <c r="B3521" t="inlineStr">
         <is>
-          <t>1000,00</t>
+          <t>990,00</t>
         </is>
       </c>
       <c r="C3521" t="n">
@@ -53818,6 +53818,126 @@
       </c>
       <c r="C3559" t="n">
         <v>1120</v>
+      </c>
+    </row>
+    <row r="3560">
+      <c r="A3560" t="inlineStr">
+        <is>
+          <t>2024-05-20</t>
+        </is>
+      </c>
+      <c r="B3560" t="inlineStr">
+        <is>
+          <t>1150,00</t>
+        </is>
+      </c>
+      <c r="C3560" t="n">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="3561">
+      <c r="A3561" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="B3561" t="inlineStr">
+        <is>
+          <t>1200,00</t>
+        </is>
+      </c>
+      <c r="C3561" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="3562">
+      <c r="A3562" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B3562" t="inlineStr">
+        <is>
+          <t>1245,00</t>
+        </is>
+      </c>
+      <c r="C3562" t="n">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="3563">
+      <c r="A3563" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="B3563" t="inlineStr">
+        <is>
+          <t>1250,00</t>
+        </is>
+      </c>
+      <c r="C3563" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="3564">
+      <c r="A3564" t="inlineStr">
+        <is>
+          <t>2024-05-24</t>
+        </is>
+      </c>
+      <c r="B3564" t="inlineStr">
+        <is>
+          <t>1190,00</t>
+        </is>
+      </c>
+      <c r="C3564" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="3565">
+      <c r="A3565" t="inlineStr">
+        <is>
+          <t>2024-05-27</t>
+        </is>
+      </c>
+      <c r="B3565" t="inlineStr">
+        <is>
+          <t>1175,00</t>
+        </is>
+      </c>
+      <c r="C3565" t="n">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="3566">
+      <c r="A3566" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="B3566" t="inlineStr">
+        <is>
+          <t>1180,00</t>
+        </is>
+      </c>
+      <c r="C3566" t="n">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="3567">
+      <c r="A3567" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="B3567" t="inlineStr">
+        <is>
+          <t>1200,00</t>
+        </is>
+      </c>
+      <c r="C3567" t="n">
+        <v>1230</v>
       </c>
     </row>
   </sheetData>

--- a/data/quotes/usd_blue.xlsx
+++ b/data/quotes/usd_blue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3567"/>
+  <dimension ref="A1:C3571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39098,11 +39098,11 @@
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>125,00</t>
+          <t>127,00</t>
         </is>
       </c>
       <c r="C2578" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2579">
@@ -39113,11 +39113,11 @@
       </c>
       <c r="B2579" t="inlineStr">
         <is>
-          <t>127,00</t>
+          <t>125,00</t>
         </is>
       </c>
       <c r="C2579" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2580">
@@ -40538,11 +40538,11 @@
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>145,00</t>
+          <t>146,00</t>
         </is>
       </c>
       <c r="C2674" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2675">
@@ -40553,11 +40553,11 @@
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>146,00</t>
+          <t>145,00</t>
         </is>
       </c>
       <c r="C2675" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2676">
@@ -49268,11 +49268,11 @@
       </c>
       <c r="B3256" t="inlineStr">
         <is>
-          <t>469,00</t>
+          <t>467,00</t>
         </is>
       </c>
       <c r="C3256" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3257">
@@ -49283,11 +49283,11 @@
       </c>
       <c r="B3257" t="inlineStr">
         <is>
-          <t>467,00</t>
+          <t>469,00</t>
         </is>
       </c>
       <c r="C3257" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3258">
@@ -49613,11 +49613,11 @@
       </c>
       <c r="B3279" t="inlineStr">
         <is>
-          <t>481,00</t>
+          <t>485,00</t>
         </is>
       </c>
       <c r="C3279" t="n">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3280">
@@ -49628,11 +49628,11 @@
       </c>
       <c r="B3280" t="inlineStr">
         <is>
-          <t>485,00</t>
+          <t>481,00</t>
         </is>
       </c>
       <c r="C3280" t="n">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3281">
@@ -52553,11 +52553,11 @@
       </c>
       <c r="B3475" t="inlineStr">
         <is>
-          <t>1010,00</t>
+          <t>1005,00</t>
         </is>
       </c>
       <c r="C3475" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3476">
@@ -52568,11 +52568,11 @@
       </c>
       <c r="B3476" t="inlineStr">
         <is>
-          <t>1005,00</t>
+          <t>1010,00</t>
         </is>
       </c>
       <c r="C3476" t="n">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3477">
@@ -52898,11 +52898,11 @@
       </c>
       <c r="B3498" t="inlineStr">
         <is>
-          <t>990,00</t>
+          <t>1005,00</t>
         </is>
       </c>
       <c r="C3498" t="n">
-        <v>1020</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3499">
@@ -52913,11 +52913,11 @@
       </c>
       <c r="B3499" t="inlineStr">
         <is>
-          <t>1015,00</t>
+          <t>1000,00</t>
         </is>
       </c>
       <c r="C3499" t="n">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3500">
@@ -52928,11 +52928,11 @@
       </c>
       <c r="B3500" t="inlineStr">
         <is>
-          <t>1005,00</t>
+          <t>990,00</t>
         </is>
       </c>
       <c r="C3500" t="n">
-        <v>1035</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3501">
@@ -52958,11 +52958,11 @@
       </c>
       <c r="B3502" t="inlineStr">
         <is>
-          <t>1010,00</t>
+          <t>1015,00</t>
         </is>
       </c>
       <c r="C3502" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3503">
@@ -52973,7 +52973,7 @@
       </c>
       <c r="B3503" t="inlineStr">
         <is>
-          <t>1000,00</t>
+          <t>1010,00</t>
         </is>
       </c>
       <c r="C3503" t="n">
@@ -52988,11 +52988,11 @@
       </c>
       <c r="B3504" t="inlineStr">
         <is>
-          <t>995,00</t>
+          <t>1005,00</t>
         </is>
       </c>
       <c r="C3504" t="n">
-        <v>1025</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3505">
@@ -53003,11 +53003,11 @@
       </c>
       <c r="B3505" t="inlineStr">
         <is>
-          <t>1005,00</t>
+          <t>1000,00</t>
         </is>
       </c>
       <c r="C3505" t="n">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3506">
@@ -53018,11 +53018,11 @@
       </c>
       <c r="B3506" t="inlineStr">
         <is>
-          <t>1000,00</t>
+          <t>995,00</t>
         </is>
       </c>
       <c r="C3506" t="n">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3507">
@@ -53048,11 +53048,11 @@
       </c>
       <c r="B3508" t="inlineStr">
         <is>
-          <t>1000,00</t>
+          <t>990,00</t>
         </is>
       </c>
       <c r="C3508" t="n">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3509">
@@ -53078,11 +53078,11 @@
       </c>
       <c r="B3510" t="inlineStr">
         <is>
-          <t>990,00</t>
+          <t>1000,00</t>
         </is>
       </c>
       <c r="C3510" t="n">
-        <v>1020</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3511">
@@ -53228,7 +53228,7 @@
       </c>
       <c r="B3520" t="inlineStr">
         <is>
-          <t>1000,00</t>
+          <t>990,00</t>
         </is>
       </c>
       <c r="C3520" t="n">
@@ -53243,7 +53243,7 @@
       </c>
       <c r="B3521" t="inlineStr">
         <is>
-          <t>990,00</t>
+          <t>1000,00</t>
         </is>
       </c>
       <c r="C3521" t="n">
@@ -53783,11 +53783,11 @@
       </c>
       <c r="B3557" t="inlineStr">
         <is>
-          <t>1075,00</t>
+          <t>1090,00</t>
         </is>
       </c>
       <c r="C3557" t="n">
-        <v>1105</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3558">
@@ -53798,11 +53798,11 @@
       </c>
       <c r="B3558" t="inlineStr">
         <is>
-          <t>1070,00</t>
+          <t>1075,00</t>
         </is>
       </c>
       <c r="C3558" t="n">
-        <v>1100</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3559">
@@ -53813,11 +53813,11 @@
       </c>
       <c r="B3559" t="inlineStr">
         <is>
-          <t>1090,00</t>
+          <t>1070,00</t>
         </is>
       </c>
       <c r="C3559" t="n">
-        <v>1120</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3560">
@@ -53938,6 +53938,66 @@
       </c>
       <c r="C3567" t="n">
         <v>1230</v>
+      </c>
+    </row>
+    <row r="3568">
+      <c r="A3568" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="B3568" t="inlineStr">
+        <is>
+          <t>1200,00</t>
+        </is>
+      </c>
+      <c r="C3568" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="3569">
+      <c r="A3569" t="inlineStr">
+        <is>
+          <t>2024-05-31</t>
+        </is>
+      </c>
+      <c r="B3569" t="inlineStr">
+        <is>
+          <t>1195,00</t>
+        </is>
+      </c>
+      <c r="C3569" t="n">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="3570">
+      <c r="A3570" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="B3570" t="inlineStr">
+        <is>
+          <t>1205,00</t>
+        </is>
+      </c>
+      <c r="C3570" t="n">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="3571">
+      <c r="A3571" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="B3571" t="inlineStr">
+        <is>
+          <t>1235,00</t>
+        </is>
+      </c>
+      <c r="C3571" t="n">
+        <v>1265</v>
       </c>
     </row>
   </sheetData>

--- a/data/quotes/usd_blue.xlsx
+++ b/data/quotes/usd_blue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3571"/>
+  <dimension ref="A1:C3572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39128,11 +39128,11 @@
       </c>
       <c r="B2580" t="inlineStr">
         <is>
-          <t>127,00</t>
+          <t>128,00</t>
         </is>
       </c>
       <c r="C2580" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2581">
@@ -39143,11 +39143,11 @@
       </c>
       <c r="B2581" t="inlineStr">
         <is>
-          <t>128,00</t>
+          <t>127,00</t>
         </is>
       </c>
       <c r="C2581" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2582">
@@ -40538,11 +40538,11 @@
       </c>
       <c r="B2674" t="inlineStr">
         <is>
-          <t>146,00</t>
+          <t>145,00</t>
         </is>
       </c>
       <c r="C2674" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2675">
@@ -40553,11 +40553,11 @@
       </c>
       <c r="B2675" t="inlineStr">
         <is>
-          <t>145,00</t>
+          <t>146,00</t>
         </is>
       </c>
       <c r="C2675" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2676">
@@ -49268,11 +49268,11 @@
       </c>
       <c r="B3256" t="inlineStr">
         <is>
-          <t>467,00</t>
+          <t>469,00</t>
         </is>
       </c>
       <c r="C3256" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3257">
@@ -49283,11 +49283,11 @@
       </c>
       <c r="B3257" t="inlineStr">
         <is>
-          <t>469,00</t>
+          <t>467,00</t>
         </is>
       </c>
       <c r="C3257" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3258">
@@ -52553,11 +52553,11 @@
       </c>
       <c r="B3475" t="inlineStr">
         <is>
-          <t>1005,00</t>
+          <t>1010,00</t>
         </is>
       </c>
       <c r="C3475" t="n">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3476">
@@ -52568,11 +52568,11 @@
       </c>
       <c r="B3476" t="inlineStr">
         <is>
-          <t>1010,00</t>
+          <t>1005,00</t>
         </is>
       </c>
       <c r="C3476" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3477">
@@ -52868,11 +52868,11 @@
       </c>
       <c r="B3496" t="inlineStr">
         <is>
-          <t>990,00</t>
+          <t>975,00</t>
         </is>
       </c>
       <c r="C3496" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3497">
@@ -52883,11 +52883,11 @@
       </c>
       <c r="B3497" t="inlineStr">
         <is>
-          <t>975,00</t>
+          <t>990,00</t>
         </is>
       </c>
       <c r="C3497" t="n">
-        <v>1005</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3498">
@@ -52928,11 +52928,11 @@
       </c>
       <c r="B3500" t="inlineStr">
         <is>
-          <t>990,00</t>
+          <t>1005,00</t>
         </is>
       </c>
       <c r="C3500" t="n">
-        <v>1020</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3501">
@@ -52943,11 +52943,11 @@
       </c>
       <c r="B3501" t="inlineStr">
         <is>
-          <t>1005,00</t>
+          <t>1015,00</t>
         </is>
       </c>
       <c r="C3501" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3502">
@@ -52958,11 +52958,11 @@
       </c>
       <c r="B3502" t="inlineStr">
         <is>
-          <t>1015,00</t>
+          <t>990,00</t>
         </is>
       </c>
       <c r="C3502" t="n">
-        <v>1035</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3503">
@@ -53093,11 +53093,11 @@
       </c>
       <c r="B3511" t="inlineStr">
         <is>
-          <t>995,00</t>
+          <t>985,00</t>
         </is>
       </c>
       <c r="C3511" t="n">
-        <v>1025</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3512">
@@ -53108,11 +53108,11 @@
       </c>
       <c r="B3512" t="inlineStr">
         <is>
-          <t>985,00</t>
+          <t>995,00</t>
         </is>
       </c>
       <c r="C3512" t="n">
-        <v>1015</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3513">
@@ -53783,11 +53783,11 @@
       </c>
       <c r="B3557" t="inlineStr">
         <is>
-          <t>1090,00</t>
+          <t>1075,00</t>
         </is>
       </c>
       <c r="C3557" t="n">
-        <v>1120</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3558">
@@ -53798,11 +53798,11 @@
       </c>
       <c r="B3558" t="inlineStr">
         <is>
-          <t>1075,00</t>
+          <t>1070,00</t>
         </is>
       </c>
       <c r="C3558" t="n">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3559">
@@ -53813,11 +53813,11 @@
       </c>
       <c r="B3559" t="inlineStr">
         <is>
-          <t>1070,00</t>
+          <t>1090,00</t>
         </is>
       </c>
       <c r="C3559" t="n">
-        <v>1100</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3560">
@@ -53998,6 +53998,21 @@
       </c>
       <c r="C3571" t="n">
         <v>1265</v>
+      </c>
+    </row>
+    <row r="3572">
+      <c r="A3572" t="inlineStr">
+        <is>
+          <t>2024-06-05</t>
+        </is>
+      </c>
+      <c r="B3572" t="inlineStr">
+        <is>
+          <t>1220,00</t>
+        </is>
+      </c>
+      <c r="C3572" t="n">
+        <v>1250</v>
       </c>
     </row>
   </sheetData>

--- a/data/quotes/usd_blue.xlsx
+++ b/data/quotes/usd_blue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3572"/>
+  <dimension ref="A1:C3577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39098,11 +39098,11 @@
       </c>
       <c r="B2578" t="inlineStr">
         <is>
-          <t>127,00</t>
+          <t>125,00</t>
         </is>
       </c>
       <c r="C2578" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2579">
@@ -39113,11 +39113,11 @@
       </c>
       <c r="B2579" t="inlineStr">
         <is>
-          <t>125,00</t>
+          <t>127,00</t>
         </is>
       </c>
       <c r="C2579" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2580">
@@ -41183,11 +41183,11 @@
       </c>
       <c r="B2717" t="inlineStr">
         <is>
-          <t>141,00</t>
+          <t>142,00</t>
         </is>
       </c>
       <c r="C2717" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2718">
@@ -41198,11 +41198,11 @@
       </c>
       <c r="B2718" t="inlineStr">
         <is>
-          <t>142,00</t>
+          <t>141,00</t>
         </is>
       </c>
       <c r="C2718" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2719">
@@ -42713,11 +42713,11 @@
       </c>
       <c r="B2819" t="inlineStr">
         <is>
-          <t>180,00</t>
+          <t>179,00</t>
         </is>
       </c>
       <c r="C2819" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2820">
@@ -42728,11 +42728,11 @@
       </c>
       <c r="B2820" t="inlineStr">
         <is>
-          <t>179,00</t>
+          <t>180,00</t>
         </is>
       </c>
       <c r="C2820" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2821">
@@ -42848,11 +42848,11 @@
       </c>
       <c r="B2828" t="inlineStr">
         <is>
-          <t>175,50</t>
+          <t>174,50</t>
         </is>
       </c>
       <c r="C2828" t="n">
-        <v>180.5</v>
+        <v>179.5</v>
       </c>
     </row>
     <row r="2829">
@@ -42863,11 +42863,11 @@
       </c>
       <c r="B2829" t="inlineStr">
         <is>
-          <t>174,50</t>
+          <t>175,50</t>
         </is>
       </c>
       <c r="C2829" t="n">
-        <v>179.5</v>
+        <v>180.5</v>
       </c>
     </row>
     <row r="2830">
@@ -43118,11 +43118,11 @@
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>176,50</t>
+          <t>177,00</t>
         </is>
       </c>
       <c r="C2846" t="n">
-        <v>181.5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2847">
@@ -43133,11 +43133,11 @@
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>177,00</t>
+          <t>176,50</t>
         </is>
       </c>
       <c r="C2847" t="n">
-        <v>182</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="2848">
@@ -47048,11 +47048,11 @@
       </c>
       <c r="B3108" t="inlineStr">
         <is>
-          <t>283,00</t>
+          <t>281,00</t>
         </is>
       </c>
       <c r="C3108" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3109">
@@ -47063,11 +47063,11 @@
       </c>
       <c r="B3109" t="inlineStr">
         <is>
-          <t>281,00</t>
+          <t>283,00</t>
         </is>
       </c>
       <c r="C3109" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3110">
@@ -47648,11 +47648,11 @@
       </c>
       <c r="B3148" t="inlineStr">
         <is>
-          <t>303,00</t>
+          <t>302,00</t>
         </is>
       </c>
       <c r="C3148" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3149">
@@ -47663,11 +47663,11 @@
       </c>
       <c r="B3149" t="inlineStr">
         <is>
-          <t>302,00</t>
+          <t>303,00</t>
         </is>
       </c>
       <c r="C3149" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3150">
@@ -49553,11 +49553,11 @@
       </c>
       <c r="B3275" t="inlineStr">
         <is>
-          <t>488,00</t>
+          <t>485,00</t>
         </is>
       </c>
       <c r="C3275" t="n">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3276">
@@ -49568,11 +49568,11 @@
       </c>
       <c r="B3276" t="inlineStr">
         <is>
-          <t>485,00</t>
+          <t>488,00</t>
         </is>
       </c>
       <c r="C3276" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3277">
@@ -49883,11 +49883,11 @@
       </c>
       <c r="B3297" t="inlineStr">
         <is>
-          <t>489,00</t>
+          <t>488,00</t>
         </is>
       </c>
       <c r="C3297" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3298">
@@ -49898,11 +49898,11 @@
       </c>
       <c r="B3298" t="inlineStr">
         <is>
-          <t>488,00</t>
+          <t>489,00</t>
         </is>
       </c>
       <c r="C3298" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3299">
@@ -50543,11 +50543,11 @@
       </c>
       <c r="B3341" t="inlineStr">
         <is>
-          <t>725,00</t>
+          <t>715,00</t>
         </is>
       </c>
       <c r="C3341" t="n">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3342">
@@ -50558,11 +50558,11 @@
       </c>
       <c r="B3342" t="inlineStr">
         <is>
-          <t>715,00</t>
+          <t>720,00</t>
         </is>
       </c>
       <c r="C3342" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3343">
@@ -50573,11 +50573,11 @@
       </c>
       <c r="B3343" t="inlineStr">
         <is>
-          <t>720,00</t>
+          <t>725,00</t>
         </is>
       </c>
       <c r="C3343" t="n">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3344">
@@ -52388,11 +52388,11 @@
       </c>
       <c r="B3464" t="inlineStr">
         <is>
-          <t>1000,00</t>
+          <t>1015,00</t>
         </is>
       </c>
       <c r="C3464" t="n">
-        <v>1030</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3465">
@@ -52418,11 +52418,11 @@
       </c>
       <c r="B3466" t="inlineStr">
         <is>
-          <t>1015,00</t>
+          <t>1000,00</t>
         </is>
       </c>
       <c r="C3466" t="n">
-        <v>1045</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3467">
@@ -52433,11 +52433,11 @@
       </c>
       <c r="B3467" t="inlineStr">
         <is>
-          <t>1000,00</t>
+          <t>1020,00</t>
         </is>
       </c>
       <c r="C3467" t="n">
-        <v>1030</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3468">
@@ -52448,11 +52448,11 @@
       </c>
       <c r="B3468" t="inlineStr">
         <is>
-          <t>980,00</t>
+          <t>1015,00</t>
         </is>
       </c>
       <c r="C3468" t="n">
-        <v>1010</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3469">
@@ -52463,11 +52463,11 @@
       </c>
       <c r="B3469" t="inlineStr">
         <is>
-          <t>975,00</t>
+          <t>1010,00</t>
         </is>
       </c>
       <c r="C3469" t="n">
-        <v>1005</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3470">
@@ -52493,11 +52493,11 @@
       </c>
       <c r="B3471" t="inlineStr">
         <is>
-          <t>1010,00</t>
+          <t>975,00</t>
         </is>
       </c>
       <c r="C3471" t="n">
-        <v>1040</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3472">
@@ -52508,11 +52508,11 @@
       </c>
       <c r="B3472" t="inlineStr">
         <is>
-          <t>1015,00</t>
+          <t>980,00</t>
         </is>
       </c>
       <c r="C3472" t="n">
-        <v>1045</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3473">
@@ -52523,11 +52523,11 @@
       </c>
       <c r="B3473" t="inlineStr">
         <is>
-          <t>1020,00</t>
+          <t>1000,00</t>
         </is>
       </c>
       <c r="C3473" t="n">
-        <v>1050</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3474">
@@ -52538,11 +52538,11 @@
       </c>
       <c r="B3474" t="inlineStr">
         <is>
-          <t>985,00</t>
+          <t>1020,00</t>
         </is>
       </c>
       <c r="C3474" t="n">
-        <v>1015</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3475">
@@ -52583,11 +52583,11 @@
       </c>
       <c r="B3477" t="inlineStr">
         <is>
-          <t>1020,00</t>
+          <t>990,00</t>
         </is>
       </c>
       <c r="C3477" t="n">
-        <v>1050</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3478">
@@ -52598,11 +52598,11 @@
       </c>
       <c r="B3478" t="inlineStr">
         <is>
-          <t>990,00</t>
+          <t>985,00</t>
         </is>
       </c>
       <c r="C3478" t="n">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3479">
@@ -52613,11 +52613,11 @@
       </c>
       <c r="B3479" t="inlineStr">
         <is>
-          <t>985,00</t>
+          <t>980,00</t>
         </is>
       </c>
       <c r="C3479" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3480">
@@ -52632,7 +52632,7 @@
         </is>
       </c>
       <c r="C3480" t="n">
-        <v>1005</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3481">
@@ -52643,11 +52643,11 @@
       </c>
       <c r="B3481" t="inlineStr">
         <is>
-          <t>980,00</t>
+          <t>985,00</t>
         </is>
       </c>
       <c r="C3481" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3482">
@@ -52658,11 +52658,11 @@
       </c>
       <c r="B3482" t="inlineStr">
         <is>
-          <t>960,00</t>
+          <t>980,00</t>
         </is>
       </c>
       <c r="C3482" t="n">
-        <v>990</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3483">
@@ -52673,11 +52673,11 @@
       </c>
       <c r="B3483" t="inlineStr">
         <is>
-          <t>965,00</t>
+          <t>975,00</t>
         </is>
       </c>
       <c r="C3483" t="n">
-        <v>995</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3484">
@@ -52692,7 +52692,7 @@
         </is>
       </c>
       <c r="C3484" t="n">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3485">
@@ -52703,11 +52703,11 @@
       </c>
       <c r="B3485" t="inlineStr">
         <is>
-          <t>975,00</t>
+          <t>965,00</t>
         </is>
       </c>
       <c r="C3485" t="n">
-        <v>1005</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3486">
@@ -52718,11 +52718,11 @@
       </c>
       <c r="B3486" t="inlineStr">
         <is>
-          <t>980,00</t>
+          <t>960,00</t>
         </is>
       </c>
       <c r="C3486" t="n">
-        <v>1010</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3487">
@@ -52733,11 +52733,11 @@
       </c>
       <c r="B3487" t="inlineStr">
         <is>
-          <t>960,00</t>
+          <t>955,00</t>
         </is>
       </c>
       <c r="C3487" t="n">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3488">
@@ -52748,11 +52748,11 @@
       </c>
       <c r="B3488" t="inlineStr">
         <is>
-          <t>955,00</t>
+          <t>960,00</t>
         </is>
       </c>
       <c r="C3488" t="n">
-        <v>985</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3489">
@@ -52778,11 +52778,11 @@
       </c>
       <c r="B3490" t="inlineStr">
         <is>
-          <t>965,00</t>
+          <t>955,00</t>
         </is>
       </c>
       <c r="C3490" t="n">
-        <v>995</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3491">
@@ -52793,11 +52793,11 @@
       </c>
       <c r="B3491" t="inlineStr">
         <is>
-          <t>955,00</t>
+          <t>960,00</t>
         </is>
       </c>
       <c r="C3491" t="n">
-        <v>985</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3492">
@@ -52808,11 +52808,11 @@
       </c>
       <c r="B3492" t="inlineStr">
         <is>
-          <t>960,00</t>
+          <t>965,00</t>
         </is>
       </c>
       <c r="C3492" t="n">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3493">
@@ -52823,11 +52823,11 @@
       </c>
       <c r="B3493" t="inlineStr">
         <is>
-          <t>965,00</t>
+          <t>975,00</t>
         </is>
       </c>
       <c r="C3493" t="n">
-        <v>995</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3494">
@@ -52853,11 +52853,11 @@
       </c>
       <c r="B3495" t="inlineStr">
         <is>
-          <t>975,00</t>
+          <t>965,00</t>
         </is>
       </c>
       <c r="C3495" t="n">
-        <v>1005</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3496">
@@ -52928,7 +52928,7 @@
       </c>
       <c r="B3500" t="inlineStr">
         <is>
-          <t>1005,00</t>
+          <t>1010,00</t>
         </is>
       </c>
       <c r="C3500" t="n">
@@ -52973,7 +52973,7 @@
       </c>
       <c r="B3503" t="inlineStr">
         <is>
-          <t>1010,00</t>
+          <t>1005,00</t>
         </is>
       </c>
       <c r="C3503" t="n">
@@ -53093,11 +53093,11 @@
       </c>
       <c r="B3511" t="inlineStr">
         <is>
-          <t>985,00</t>
+          <t>995,00</t>
         </is>
       </c>
       <c r="C3511" t="n">
-        <v>1015</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3512">
@@ -53108,11 +53108,11 @@
       </c>
       <c r="B3512" t="inlineStr">
         <is>
-          <t>995,00</t>
+          <t>985,00</t>
         </is>
       </c>
       <c r="C3512" t="n">
-        <v>1025</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3513">
@@ -53168,11 +53168,11 @@
       </c>
       <c r="B3516" t="inlineStr">
         <is>
-          <t>1000,00</t>
+          <t>1005,00</t>
         </is>
       </c>
       <c r="C3516" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3517">
@@ -53183,11 +53183,11 @@
       </c>
       <c r="B3517" t="inlineStr">
         <is>
-          <t>1005,00</t>
+          <t>1000,00</t>
         </is>
       </c>
       <c r="C3517" t="n">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3518">
@@ -53228,7 +53228,7 @@
       </c>
       <c r="B3520" t="inlineStr">
         <is>
-          <t>990,00</t>
+          <t>1000,00</t>
         </is>
       </c>
       <c r="C3520" t="n">
@@ -53243,7 +53243,7 @@
       </c>
       <c r="B3521" t="inlineStr">
         <is>
-          <t>1000,00</t>
+          <t>990,00</t>
         </is>
       </c>
       <c r="C3521" t="n">
@@ -53273,11 +53273,11 @@
       </c>
       <c r="B3523" t="inlineStr">
         <is>
-          <t>990,00</t>
+          <t>985,00</t>
         </is>
       </c>
       <c r="C3523" t="n">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3524">
@@ -53288,11 +53288,11 @@
       </c>
       <c r="B3524" t="inlineStr">
         <is>
-          <t>985,00</t>
+          <t>990,00</t>
         </is>
       </c>
       <c r="C3524" t="n">
-        <v>1015</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3525">
@@ -54013,6 +54013,81 @@
       </c>
       <c r="C3572" t="n">
         <v>1250</v>
+      </c>
+    </row>
+    <row r="3573">
+      <c r="A3573" t="inlineStr">
+        <is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="B3573" t="inlineStr">
+        <is>
+          <t>1220,00</t>
+        </is>
+      </c>
+      <c r="C3573" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="3574">
+      <c r="A3574" t="inlineStr">
+        <is>
+          <t>2024-06-07</t>
+        </is>
+      </c>
+      <c r="B3574" t="inlineStr">
+        <is>
+          <t>1235,00</t>
+        </is>
+      </c>
+      <c r="C3574" t="n">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="3575">
+      <c r="A3575" t="inlineStr">
+        <is>
+          <t>2024-06-10</t>
+        </is>
+      </c>
+      <c r="B3575" t="inlineStr">
+        <is>
+          <t>1250,00</t>
+        </is>
+      </c>
+      <c r="C3575" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="3576">
+      <c r="A3576" t="inlineStr">
+        <is>
+          <t>2024-06-11</t>
+        </is>
+      </c>
+      <c r="B3576" t="inlineStr">
+        <is>
+          <t>1265,00</t>
+        </is>
+      </c>
+      <c r="C3576" t="n">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="3577">
+      <c r="A3577" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="B3577" t="inlineStr">
+        <is>
+          <t>1255,00</t>
+        </is>
+      </c>
+      <c r="C3577" t="n">
+        <v>1285</v>
       </c>
     </row>
   </sheetData>
